--- a/b.xlsx
+++ b/b.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhymacbookair/IdeaProjects/excel-merge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215B7A53-5CC3-AA44-A36F-09E4D1FF0A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482553F1-3A84-D94B-A2F4-B6D3B2BD3776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{38165D6E-0F2B-7C41-A4CD-A9D194F9A407}"/>
   </bookViews>
@@ -36,21 +36,15 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>course</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>age</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>score</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>zhangsan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -61,6 +55,9 @@
   <si>
     <t>tiyu</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">score  </t>
   </si>
 </sst>
 </file>
@@ -427,7 +424,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="334" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -443,18 +440,18 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>89</v>
@@ -462,13 +459,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D3">
         <v>92</v>
